--- a/src/Biocode/out/results/Caenorhabditis elegans 2008.xlsx
+++ b/src/Biocode/out/results/Caenorhabditis elegans 2008.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Whole Genome" sheetId="1" r:id="rId1"/>
+    <sheet name="With regions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>D-20</t>
   </si>
@@ -164,6 +165,63 @@
   </si>
   <si>
     <t>ChrX</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Chr1_region_1</t>
+  </si>
+  <si>
+    <t>Chr1_region_2</t>
+  </si>
+  <si>
+    <t>Chr1_region_3</t>
+  </si>
+  <si>
+    <t>Chr2_region_1</t>
+  </si>
+  <si>
+    <t>Chr2_region_2</t>
+  </si>
+  <si>
+    <t>Chr2_region_3</t>
+  </si>
+  <si>
+    <t>Chr3_region_1</t>
+  </si>
+  <si>
+    <t>Chr3_region_2</t>
+  </si>
+  <si>
+    <t>Chr3_region_3</t>
+  </si>
+  <si>
+    <t>Chr4_region_1</t>
+  </si>
+  <si>
+    <t>Chr4_region_2</t>
+  </si>
+  <si>
+    <t>Chr4_region_3</t>
+  </si>
+  <si>
+    <t>Chr5_region_1</t>
+  </si>
+  <si>
+    <t>Chr5_region_2</t>
+  </si>
+  <si>
+    <t>Chr5_region_3</t>
+  </si>
+  <si>
+    <t>ChrX_region_1</t>
+  </si>
+  <si>
+    <t>ChrX_region_2</t>
+  </si>
+  <si>
+    <t>ChrX_region_3</t>
   </si>
 </sst>
 </file>
@@ -1468,4 +1526,2563 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AR19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:44">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>2.383518786332478</v>
+      </c>
+      <c r="C2">
+        <v>2.381569919143433</v>
+      </c>
+      <c r="D2">
+        <v>2.379384584379397</v>
+      </c>
+      <c r="E2">
+        <v>2.376917682022676</v>
+      </c>
+      <c r="F2">
+        <v>2.374112333193</v>
+      </c>
+      <c r="G2">
+        <v>2.370896029564876</v>
+      </c>
+      <c r="H2">
+        <v>2.367175257685269</v>
+      </c>
+      <c r="I2">
+        <v>2.362827846595883</v>
+      </c>
+      <c r="J2">
+        <v>2.357691807432733</v>
+      </c>
+      <c r="K2">
+        <v>2.351548576876453</v>
+      </c>
+      <c r="L2">
+        <v>2.344097044960795</v>
+      </c>
+      <c r="M2">
+        <v>2.334912112701936</v>
+      </c>
+      <c r="N2">
+        <v>2.323377417622247</v>
+      </c>
+      <c r="O2">
+        <v>2.30857694968009</v>
+      </c>
+      <c r="P2">
+        <v>2.289131915028558</v>
+      </c>
+      <c r="Q2">
+        <v>2.263032815734108</v>
+      </c>
+      <c r="R2">
+        <v>2.227988220771635</v>
+      </c>
+      <c r="S2">
+        <v>2.183898707486537</v>
+      </c>
+      <c r="T2">
+        <v>2.132070846039178</v>
+      </c>
+      <c r="U2">
+        <v>2.067687310172133</v>
+      </c>
+      <c r="V2">
+        <v>1.979453222789786</v>
+      </c>
+      <c r="W2">
+        <v>1.827171956785167</v>
+      </c>
+      <c r="X2">
+        <v>1.596049985612386</v>
+      </c>
+      <c r="Y2">
+        <v>1.42353248714854</v>
+      </c>
+      <c r="Z2">
+        <v>1.318222876066268</v>
+      </c>
+      <c r="AA2">
+        <v>1.251111045938938</v>
+      </c>
+      <c r="AB2">
+        <v>1.206366764196735</v>
+      </c>
+      <c r="AC2">
+        <v>1.175005203208252</v>
+      </c>
+      <c r="AD2">
+        <v>1.151996178546726</v>
+      </c>
+      <c r="AE2">
+        <v>1.134464974675166</v>
+      </c>
+      <c r="AF2">
+        <v>1.12069337053434</v>
+      </c>
+      <c r="AG2">
+        <v>1.109603562896426</v>
+      </c>
+      <c r="AH2">
+        <v>1.100489226872663</v>
+      </c>
+      <c r="AI2">
+        <v>1.092869733266091</v>
+      </c>
+      <c r="AJ2">
+        <v>1.08640739459879</v>
+      </c>
+      <c r="AK2">
+        <v>1.080858379516055</v>
+      </c>
+      <c r="AL2">
+        <v>1.076042433078596</v>
+      </c>
+      <c r="AM2">
+        <v>1.071823545454034</v>
+      </c>
+      <c r="AN2">
+        <v>1.068097234334332</v>
+      </c>
+      <c r="AO2">
+        <v>1.064781954894955</v>
+      </c>
+      <c r="AP2">
+        <v>1.061813160877618</v>
+      </c>
+      <c r="AQ2">
+        <v>1.321705625454859</v>
+      </c>
+      <c r="AR2">
+        <v>20.17445005667475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>2.330489371845816</v>
+      </c>
+      <c r="C3">
+        <v>2.328931688341197</v>
+      </c>
+      <c r="D3">
+        <v>2.327196636490084</v>
+      </c>
+      <c r="E3">
+        <v>2.325252812784624</v>
+      </c>
+      <c r="F3">
+        <v>2.323060920603873</v>
+      </c>
+      <c r="G3">
+        <v>2.320571103910155</v>
+      </c>
+      <c r="H3">
+        <v>2.317719118004419</v>
+      </c>
+      <c r="I3">
+        <v>2.31442070738926</v>
+      </c>
+      <c r="J3">
+        <v>2.310563154106272</v>
+      </c>
+      <c r="K3">
+        <v>2.305992254580927</v>
+      </c>
+      <c r="L3">
+        <v>2.30049174473347</v>
+      </c>
+      <c r="M3">
+        <v>2.293750011678553</v>
+      </c>
+      <c r="N3">
+        <v>2.285305130481469</v>
+      </c>
+      <c r="O3">
+        <v>2.274452923955312</v>
+      </c>
+      <c r="P3">
+        <v>2.260093771030219</v>
+      </c>
+      <c r="Q3">
+        <v>2.240492677935991</v>
+      </c>
+      <c r="R3">
+        <v>2.213026548134941</v>
+      </c>
+      <c r="S3">
+        <v>2.174664512837777</v>
+      </c>
+      <c r="T3">
+        <v>2.124303689697793</v>
+      </c>
+      <c r="U3">
+        <v>2.060651192118863</v>
+      </c>
+      <c r="V3">
+        <v>1.979271134391019</v>
+      </c>
+      <c r="W3">
+        <v>1.872822179443741</v>
+      </c>
+      <c r="X3">
+        <v>1.740247028995088</v>
+      </c>
+      <c r="Y3">
+        <v>1.620747805948102</v>
+      </c>
+      <c r="Z3">
+        <v>1.537305843107461</v>
+      </c>
+      <c r="AA3">
+        <v>1.479144113235816</v>
+      </c>
+      <c r="AB3">
+        <v>1.436731193075653</v>
+      </c>
+      <c r="AC3">
+        <v>1.404912402142291</v>
+      </c>
+      <c r="AD3">
+        <v>1.380440883954803</v>
+      </c>
+      <c r="AE3">
+        <v>1.361163220631086</v>
+      </c>
+      <c r="AF3">
+        <v>1.345649525390697</v>
+      </c>
+      <c r="AG3">
+        <v>1.33293526333556</v>
+      </c>
+      <c r="AH3">
+        <v>1.322351985853579</v>
+      </c>
+      <c r="AI3">
+        <v>1.313423309041949</v>
+      </c>
+      <c r="AJ3">
+        <v>1.305801293702312</v>
+      </c>
+      <c r="AK3">
+        <v>1.299226508824768</v>
+      </c>
+      <c r="AL3">
+        <v>1.293502092935</v>
+      </c>
+      <c r="AM3">
+        <v>1.288476365626072</v>
+      </c>
+      <c r="AN3">
+        <v>1.284030859151836</v>
+      </c>
+      <c r="AO3">
+        <v>1.280071900778869</v>
+      </c>
+      <c r="AP3">
+        <v>1.276524584810382</v>
+      </c>
+      <c r="AQ3">
+        <v>1.053964787035435</v>
+      </c>
+      <c r="AR3">
+        <v>24.25396711139726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>2.369558161161268</v>
+      </c>
+      <c r="C4">
+        <v>2.367445503757903</v>
+      </c>
+      <c r="D4">
+        <v>2.365079271353726</v>
+      </c>
+      <c r="E4">
+        <v>2.362412515154024</v>
+      </c>
+      <c r="F4">
+        <v>2.359386492705354</v>
+      </c>
+      <c r="G4">
+        <v>2.355926990631976</v>
+      </c>
+      <c r="H4">
+        <v>2.351939287806387</v>
+      </c>
+      <c r="I4">
+        <v>2.347301126623679</v>
+      </c>
+      <c r="J4">
+        <v>2.341852616502524</v>
+      </c>
+      <c r="K4">
+        <v>2.335381097465692</v>
+      </c>
+      <c r="L4">
+        <v>2.327597217493679</v>
+      </c>
+      <c r="M4">
+        <v>2.318095371670448</v>
+      </c>
+      <c r="N4">
+        <v>2.306287595579097</v>
+      </c>
+      <c r="O4">
+        <v>2.291298659971362</v>
+      </c>
+      <c r="P4">
+        <v>2.271828605625936</v>
+      </c>
+      <c r="Q4">
+        <v>2.246122571523187</v>
+      </c>
+      <c r="R4">
+        <v>2.212771158715095</v>
+      </c>
+      <c r="S4">
+        <v>2.172420276443409</v>
+      </c>
+      <c r="T4">
+        <v>2.123920733549932</v>
+      </c>
+      <c r="U4">
+        <v>2.062688836024269</v>
+      </c>
+      <c r="V4">
+        <v>1.981713462992248</v>
+      </c>
+      <c r="W4">
+        <v>1.852981638016358</v>
+      </c>
+      <c r="X4">
+        <v>1.651253607284394</v>
+      </c>
+      <c r="Y4">
+        <v>1.477867707654743</v>
+      </c>
+      <c r="Z4">
+        <v>1.36922384172925</v>
+      </c>
+      <c r="AA4">
+        <v>1.300845245438043</v>
+      </c>
+      <c r="AB4">
+        <v>1.255570992034084</v>
+      </c>
+      <c r="AC4">
+        <v>1.223794092691753</v>
+      </c>
+      <c r="AD4">
+        <v>1.20034099907584</v>
+      </c>
+      <c r="AE4">
+        <v>1.182340147123645</v>
+      </c>
+      <c r="AF4">
+        <v>1.16810020766177</v>
+      </c>
+      <c r="AG4">
+        <v>1.156563227874652</v>
+      </c>
+      <c r="AH4">
+        <v>1.147032743962029</v>
+      </c>
+      <c r="AI4">
+        <v>1.139031066632827</v>
+      </c>
+      <c r="AJ4">
+        <v>1.132219633934437</v>
+      </c>
+      <c r="AK4">
+        <v>1.126351985176999</v>
+      </c>
+      <c r="AL4">
+        <v>1.121244644546287</v>
+      </c>
+      <c r="AM4">
+        <v>1.116758379347214</v>
+      </c>
+      <c r="AN4">
+        <v>1.112785746246423</v>
+      </c>
+      <c r="AO4">
+        <v>1.109242593644266</v>
+      </c>
+      <c r="AP4">
+        <v>1.106062131187958</v>
+      </c>
+      <c r="AQ4">
+        <v>1.26349602997331</v>
+      </c>
+      <c r="AR4">
+        <v>21.0151804925712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>2.374680039696321</v>
+      </c>
+      <c r="C5">
+        <v>2.372651182536724</v>
+      </c>
+      <c r="D5">
+        <v>2.370375276442406</v>
+      </c>
+      <c r="E5">
+        <v>2.367806341681801</v>
+      </c>
+      <c r="F5">
+        <v>2.364886783063203</v>
+      </c>
+      <c r="G5">
+        <v>2.361543659441558</v>
+      </c>
+      <c r="H5">
+        <v>2.357683497559026</v>
+      </c>
+      <c r="I5">
+        <v>2.353184963982529</v>
+      </c>
+      <c r="J5">
+        <v>2.347888284503458</v>
+      </c>
+      <c r="K5">
+        <v>2.341579488820036</v>
+      </c>
+      <c r="L5">
+        <v>2.333965901664782</v>
+      </c>
+      <c r="M5">
+        <v>2.324635904180577</v>
+      </c>
+      <c r="N5">
+        <v>2.312989673767692</v>
+      </c>
+      <c r="O5">
+        <v>2.29811879393192</v>
+      </c>
+      <c r="P5">
+        <v>2.278611812317763</v>
+      </c>
+      <c r="Q5">
+        <v>2.25234439783676</v>
+      </c>
+      <c r="R5">
+        <v>2.216966802441515</v>
+      </c>
+      <c r="S5">
+        <v>2.173204113202292</v>
+      </c>
+      <c r="T5">
+        <v>2.122752499526973</v>
+      </c>
+      <c r="U5">
+        <v>2.061305134650651</v>
+      </c>
+      <c r="V5">
+        <v>1.98313864810989</v>
+      </c>
+      <c r="W5">
+        <v>1.865699963333424</v>
+      </c>
+      <c r="X5">
+        <v>1.682927528849341</v>
+      </c>
+      <c r="Y5">
+        <v>1.515965775955399</v>
+      </c>
+      <c r="Z5">
+        <v>1.40869105397314</v>
+      </c>
+      <c r="AA5">
+        <v>1.340395823995858</v>
+      </c>
+      <c r="AB5">
+        <v>1.294777156650871</v>
+      </c>
+      <c r="AC5">
+        <v>1.262664797015082</v>
+      </c>
+      <c r="AD5">
+        <v>1.238979086495351</v>
+      </c>
+      <c r="AE5">
+        <v>1.220830038713661</v>
+      </c>
+      <c r="AF5">
+        <v>1.206494748843513</v>
+      </c>
+      <c r="AG5">
+        <v>1.194893293997773</v>
+      </c>
+      <c r="AH5">
+        <v>1.185317014521035</v>
+      </c>
+      <c r="AI5">
+        <v>1.177282145938954</v>
+      </c>
+      <c r="AJ5">
+        <v>1.170447250097062</v>
+      </c>
+      <c r="AK5">
+        <v>1.164564470043352</v>
+      </c>
+      <c r="AL5">
+        <v>1.159449535091364</v>
+      </c>
+      <c r="AM5">
+        <v>1.154962616067791</v>
+      </c>
+      <c r="AN5">
+        <v>1.150995709831223</v>
+      </c>
+      <c r="AO5">
+        <v>1.147464092102608</v>
+      </c>
+      <c r="AP5">
+        <v>1.14430038426381</v>
+      </c>
+      <c r="AQ5">
+        <v>1.23037965543251</v>
+      </c>
+      <c r="AR5">
+        <v>21.7417073010124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>2.327489868883179</v>
+      </c>
+      <c r="C6">
+        <v>2.325928637778551</v>
+      </c>
+      <c r="D6">
+        <v>2.324184014109782</v>
+      </c>
+      <c r="E6">
+        <v>2.322222879468006</v>
+      </c>
+      <c r="F6">
+        <v>2.320003786003498</v>
+      </c>
+      <c r="G6">
+        <v>2.317474213359434</v>
+      </c>
+      <c r="H6">
+        <v>2.314566688966327</v>
+      </c>
+      <c r="I6">
+        <v>2.311193194496938</v>
+      </c>
+      <c r="J6">
+        <v>2.307236928927236</v>
+      </c>
+      <c r="K6">
+        <v>2.302539892717928</v>
+      </c>
+      <c r="L6">
+        <v>2.29688369052831</v>
+      </c>
+      <c r="M6">
+        <v>2.289959036264265</v>
+      </c>
+      <c r="N6">
+        <v>2.281316003139634</v>
+      </c>
+      <c r="O6">
+        <v>2.270281126912546</v>
+      </c>
+      <c r="P6">
+        <v>2.255819286501501</v>
+      </c>
+      <c r="Q6">
+        <v>2.236321336600691</v>
+      </c>
+      <c r="R6">
+        <v>2.209409108213804</v>
+      </c>
+      <c r="S6">
+        <v>2.172375438760285</v>
+      </c>
+      <c r="T6">
+        <v>2.123497787712518</v>
+      </c>
+      <c r="U6">
+        <v>2.060360779752535</v>
+      </c>
+      <c r="V6">
+        <v>1.980268795974539</v>
+      </c>
+      <c r="W6">
+        <v>1.879766281889958</v>
+      </c>
+      <c r="X6">
+        <v>1.758834152979164</v>
+      </c>
+      <c r="Y6">
+        <v>1.647789976492577</v>
+      </c>
+      <c r="Z6">
+        <v>1.568474699643594</v>
+      </c>
+      <c r="AA6">
+        <v>1.512427121350123</v>
+      </c>
+      <c r="AB6">
+        <v>1.470658879237785</v>
+      </c>
+      <c r="AC6">
+        <v>1.438631716365321</v>
+      </c>
+      <c r="AD6">
+        <v>1.413629245193819</v>
+      </c>
+      <c r="AE6">
+        <v>1.393762082843874</v>
+      </c>
+      <c r="AF6">
+        <v>1.377693602700913</v>
+      </c>
+      <c r="AG6">
+        <v>1.364479187678561</v>
+      </c>
+      <c r="AH6">
+        <v>1.353446060052913</v>
+      </c>
+      <c r="AI6">
+        <v>1.344108568279307</v>
+      </c>
+      <c r="AJ6">
+        <v>1.336110633258443</v>
+      </c>
+      <c r="AK6">
+        <v>1.329186942254869</v>
+      </c>
+      <c r="AL6">
+        <v>1.32313665475851</v>
+      </c>
+      <c r="AM6">
+        <v>1.317805409284249</v>
+      </c>
+      <c r="AN6">
+        <v>1.313072859290171</v>
+      </c>
+      <c r="AO6">
+        <v>1.308843922281332</v>
+      </c>
+      <c r="AP6">
+        <v>1.305042549106048</v>
+      </c>
+      <c r="AQ6">
+        <v>1.022447319777131</v>
+      </c>
+      <c r="AR6">
+        <v>24.79580843301491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>2.376758152638843</v>
+      </c>
+      <c r="C7">
+        <v>2.374564305801958</v>
+      </c>
+      <c r="D7">
+        <v>2.372121980193499</v>
+      </c>
+      <c r="E7">
+        <v>2.369387062059916</v>
+      </c>
+      <c r="F7">
+        <v>2.366304214656385</v>
+      </c>
+      <c r="G7">
+        <v>2.362802978734185</v>
+      </c>
+      <c r="H7">
+        <v>2.3587921125286</v>
+      </c>
+      <c r="I7">
+        <v>2.354151220043975</v>
+      </c>
+      <c r="J7">
+        <v>2.348718160631538</v>
+      </c>
+      <c r="K7">
+        <v>2.342269854600302</v>
+      </c>
+      <c r="L7">
+        <v>2.334492717668579</v>
+      </c>
+      <c r="M7">
+        <v>2.324936796961386</v>
+      </c>
+      <c r="N7">
+        <v>2.312944509804799</v>
+      </c>
+      <c r="O7">
+        <v>2.297542208821889</v>
+      </c>
+      <c r="P7">
+        <v>2.277296856927872</v>
+      </c>
+      <c r="Q7">
+        <v>2.25028714647784</v>
+      </c>
+      <c r="R7">
+        <v>2.215107748169336</v>
+      </c>
+      <c r="S7">
+        <v>2.173201159935834</v>
+      </c>
+      <c r="T7">
+        <v>2.123908536392766</v>
+      </c>
+      <c r="U7">
+        <v>2.062798573381219</v>
+      </c>
+      <c r="V7">
+        <v>1.982825865118931</v>
+      </c>
+      <c r="W7">
+        <v>1.851266841388554</v>
+      </c>
+      <c r="X7">
+        <v>1.632897467682324</v>
+      </c>
+      <c r="Y7">
+        <v>1.454342727858728</v>
+      </c>
+      <c r="Z7">
+        <v>1.34756310855811</v>
+      </c>
+      <c r="AA7">
+        <v>1.280146109480639</v>
+      </c>
+      <c r="AB7">
+        <v>1.235014848363403</v>
+      </c>
+      <c r="AC7">
+        <v>1.203234632358871</v>
+      </c>
+      <c r="AD7">
+        <v>1.179854334541327</v>
+      </c>
+      <c r="AE7">
+        <v>1.162015036454603</v>
+      </c>
+      <c r="AF7">
+        <v>1.147990908851916</v>
+      </c>
+      <c r="AG7">
+        <v>1.136692910279678</v>
+      </c>
+      <c r="AH7">
+        <v>1.127405169930168</v>
+      </c>
+      <c r="AI7">
+        <v>1.119639811446657</v>
+      </c>
+      <c r="AJ7">
+        <v>1.113053744664822</v>
+      </c>
+      <c r="AK7">
+        <v>1.107399063472285</v>
+      </c>
+      <c r="AL7">
+        <v>1.10249237824952</v>
+      </c>
+      <c r="AM7">
+        <v>1.098195219448206</v>
+      </c>
+      <c r="AN7">
+        <v>1.094401141301313</v>
+      </c>
+      <c r="AO7">
+        <v>1.091027009413852</v>
+      </c>
+      <c r="AP7">
+        <v>1.088006975813645</v>
+      </c>
+      <c r="AQ7">
+        <v>1.288751176825197</v>
+      </c>
+      <c r="AR7">
+        <v>20.67213254045926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>2.361237961203897</v>
+      </c>
+      <c r="C8">
+        <v>2.359332828935057</v>
+      </c>
+      <c r="D8">
+        <v>2.357195121901744</v>
+      </c>
+      <c r="E8">
+        <v>2.354780605906159</v>
+      </c>
+      <c r="F8">
+        <v>2.35203349139601</v>
+      </c>
+      <c r="G8">
+        <v>2.34888261387557</v>
+      </c>
+      <c r="H8">
+        <v>2.345236102463446</v>
+      </c>
+      <c r="I8">
+        <v>2.340973848063789</v>
+      </c>
+      <c r="J8">
+        <v>2.335936735848196</v>
+      </c>
+      <c r="K8">
+        <v>2.329911078567054</v>
+      </c>
+      <c r="L8">
+        <v>2.322605894216493</v>
+      </c>
+      <c r="M8">
+        <v>2.313619531853786</v>
+      </c>
+      <c r="N8">
+        <v>2.302390726619382</v>
+      </c>
+      <c r="O8">
+        <v>2.288128415298133</v>
+      </c>
+      <c r="P8">
+        <v>2.269720537781522</v>
+      </c>
+      <c r="Q8">
+        <v>2.245668382251659</v>
+      </c>
+      <c r="R8">
+        <v>2.214310051636088</v>
+      </c>
+      <c r="S8">
+        <v>2.174716792734029</v>
+      </c>
+      <c r="T8">
+        <v>2.125898321967571</v>
+      </c>
+      <c r="U8">
+        <v>2.06345000376847</v>
+      </c>
+      <c r="V8">
+        <v>1.976394995014854</v>
+      </c>
+      <c r="W8">
+        <v>1.826938631849819</v>
+      </c>
+      <c r="X8">
+        <v>1.602047710966791</v>
+      </c>
+      <c r="Y8">
+        <v>1.428349658518544</v>
+      </c>
+      <c r="Z8">
+        <v>1.321885049218766</v>
+      </c>
+      <c r="AA8">
+        <v>1.25516672776622</v>
+      </c>
+      <c r="AB8">
+        <v>1.211150049523466</v>
+      </c>
+      <c r="AC8">
+        <v>1.180390858283265</v>
+      </c>
+      <c r="AD8">
+        <v>1.15780043643689</v>
+      </c>
+      <c r="AE8">
+        <v>1.1405427146983</v>
+      </c>
+      <c r="AF8">
+        <v>1.126945538694818</v>
+      </c>
+      <c r="AG8">
+        <v>1.115966241945232</v>
+      </c>
+      <c r="AH8">
+        <v>1.106922288570543</v>
+      </c>
+      <c r="AI8">
+        <v>1.099348418927538</v>
+      </c>
+      <c r="AJ8">
+        <v>1.092916667009191</v>
+      </c>
+      <c r="AK8">
+        <v>1.087389285173321</v>
+      </c>
+      <c r="AL8">
+        <v>1.082589800238531</v>
+      </c>
+      <c r="AM8">
+        <v>1.078384537971367</v>
+      </c>
+      <c r="AN8">
+        <v>1.074670445344365</v>
+      </c>
+      <c r="AO8">
+        <v>1.071366839172445</v>
+      </c>
+      <c r="AP8">
+        <v>1.068409679574712</v>
+      </c>
+      <c r="AQ8">
+        <v>1.292828281629185</v>
+      </c>
+      <c r="AR8">
+        <v>20.29978391191953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>2.326477204416727</v>
+      </c>
+      <c r="C9">
+        <v>2.324891204978769</v>
+      </c>
+      <c r="D9">
+        <v>2.323115205215153</v>
+      </c>
+      <c r="E9">
+        <v>2.321114677936004</v>
+      </c>
+      <c r="F9">
+        <v>2.318846420996933</v>
+      </c>
+      <c r="G9">
+        <v>2.316255689679994</v>
+      </c>
+      <c r="H9">
+        <v>2.313272129816351</v>
+      </c>
+      <c r="I9">
+        <v>2.309803902263948</v>
+      </c>
+      <c r="J9">
+        <v>2.305729031231476</v>
+      </c>
+      <c r="K9">
+        <v>2.300882424583241</v>
+      </c>
+      <c r="L9">
+        <v>2.295036070519697</v>
+      </c>
+      <c r="M9">
+        <v>2.287868428847989</v>
+      </c>
+      <c r="N9">
+        <v>2.278916735591444</v>
+      </c>
+      <c r="O9">
+        <v>2.267501945074467</v>
+      </c>
+      <c r="P9">
+        <v>2.25260607054806</v>
+      </c>
+      <c r="Q9">
+        <v>2.232658825536957</v>
+      </c>
+      <c r="R9">
+        <v>2.205252880425199</v>
+      </c>
+      <c r="S9">
+        <v>2.167594630049851</v>
+      </c>
+      <c r="T9">
+        <v>2.118735732047529</v>
+      </c>
+      <c r="U9">
+        <v>2.057010005119875</v>
+      </c>
+      <c r="V9">
+        <v>1.978195234449736</v>
+      </c>
+      <c r="W9">
+        <v>1.874007554178572</v>
+      </c>
+      <c r="X9">
+        <v>1.736664647536396</v>
+      </c>
+      <c r="Y9">
+        <v>1.61041286125992</v>
+      </c>
+      <c r="Z9">
+        <v>1.526897819229075</v>
+      </c>
+      <c r="AA9">
+        <v>1.470953717790412</v>
+      </c>
+      <c r="AB9">
+        <v>1.430917488674299</v>
+      </c>
+      <c r="AC9">
+        <v>1.40125218476325</v>
+      </c>
+      <c r="AD9">
+        <v>1.378558175150686</v>
+      </c>
+      <c r="AE9">
+        <v>1.360607911438565</v>
+      </c>
+      <c r="AF9">
+        <v>1.34598799998453</v>
+      </c>
+      <c r="AG9">
+        <v>1.333809968541626</v>
+      </c>
+      <c r="AH9">
+        <v>1.323500199524829</v>
+      </c>
+      <c r="AI9">
+        <v>1.314668278085644</v>
+      </c>
+      <c r="AJ9">
+        <v>1.307032194773453</v>
+      </c>
+      <c r="AK9">
+        <v>1.300378090789514</v>
+      </c>
+      <c r="AL9">
+        <v>1.294538525866229</v>
+      </c>
+      <c r="AM9">
+        <v>1.289379945639868</v>
+      </c>
+      <c r="AN9">
+        <v>1.284794668372528</v>
+      </c>
+      <c r="AO9">
+        <v>1.280695247163302</v>
+      </c>
+      <c r="AP9">
+        <v>1.277010248669252</v>
+      </c>
+      <c r="AQ9">
+        <v>1.049466955747475</v>
+      </c>
+      <c r="AR9">
+        <v>24.26319472471578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>2.364852917514975</v>
+      </c>
+      <c r="C10">
+        <v>2.362969408520154</v>
+      </c>
+      <c r="D10">
+        <v>2.360859000836491</v>
+      </c>
+      <c r="E10">
+        <v>2.358478300111157</v>
+      </c>
+      <c r="F10">
+        <v>2.355772511870738</v>
+      </c>
+      <c r="G10">
+        <v>2.352671610303061</v>
+      </c>
+      <c r="H10">
+        <v>2.349084931964635</v>
+      </c>
+      <c r="I10">
+        <v>2.344893450246085</v>
+      </c>
+      <c r="J10">
+        <v>2.339938609384047</v>
+      </c>
+      <c r="K10">
+        <v>2.334006008624184</v>
+      </c>
+      <c r="L10">
+        <v>2.326801247024974</v>
+      </c>
+      <c r="M10">
+        <v>2.317913437721945</v>
+      </c>
+      <c r="N10">
+        <v>2.306758418638128</v>
+      </c>
+      <c r="O10">
+        <v>2.292488063947229</v>
+      </c>
+      <c r="P10">
+        <v>2.273852282762626</v>
+      </c>
+      <c r="Q10">
+        <v>2.249068500645582</v>
+      </c>
+      <c r="R10">
+        <v>2.216181024756528</v>
+      </c>
+      <c r="S10">
+        <v>2.174919425909566</v>
+      </c>
+      <c r="T10">
+        <v>2.125424514065481</v>
+      </c>
+      <c r="U10">
+        <v>2.062937506497683</v>
+      </c>
+      <c r="V10">
+        <v>1.977379638082526</v>
+      </c>
+      <c r="W10">
+        <v>1.832052715727677</v>
+      </c>
+      <c r="X10">
+        <v>1.605423355066379</v>
+      </c>
+      <c r="Y10">
+        <v>1.431738230078496</v>
+      </c>
+      <c r="Z10">
+        <v>1.326824161172734</v>
+      </c>
+      <c r="AA10">
+        <v>1.25991071065983</v>
+      </c>
+      <c r="AB10">
+        <v>1.215040164550042</v>
+      </c>
+      <c r="AC10">
+        <v>1.183473431574948</v>
+      </c>
+      <c r="AD10">
+        <v>1.160280427291516</v>
+      </c>
+      <c r="AE10">
+        <v>1.142604387579575</v>
+      </c>
+      <c r="AF10">
+        <v>1.1287217671025</v>
+      </c>
+      <c r="AG10">
+        <v>1.117546245974561</v>
+      </c>
+      <c r="AH10">
+        <v>1.108364528054834</v>
+      </c>
+      <c r="AI10">
+        <v>1.100690994253327</v>
+      </c>
+      <c r="AJ10">
+        <v>1.094184498708972</v>
+      </c>
+      <c r="AK10">
+        <v>1.088598807535399</v>
+      </c>
+      <c r="AL10">
+        <v>1.083751970482777</v>
+      </c>
+      <c r="AM10">
+        <v>1.079506756773848</v>
+      </c>
+      <c r="AN10">
+        <v>1.075757785655506</v>
+      </c>
+      <c r="AO10">
+        <v>1.072422837144386</v>
+      </c>
+      <c r="AP10">
+        <v>1.069436847503159</v>
+      </c>
+      <c r="AQ10">
+        <v>1.295416070011816</v>
+      </c>
+      <c r="AR10">
+        <v>20.31930010256003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>2.39985858510938</v>
+      </c>
+      <c r="C11">
+        <v>2.397627499990527</v>
+      </c>
+      <c r="D11">
+        <v>2.395134300263292</v>
+      </c>
+      <c r="E11">
+        <v>2.392330961974326</v>
+      </c>
+      <c r="F11">
+        <v>2.389157126444953</v>
+      </c>
+      <c r="G11">
+        <v>2.385535978472287</v>
+      </c>
+      <c r="H11">
+        <v>2.38136842345079</v>
+      </c>
+      <c r="I11">
+        <v>2.376524719446472</v>
+      </c>
+      <c r="J11">
+        <v>2.370832219124781</v>
+      </c>
+      <c r="K11">
+        <v>2.364057020309825</v>
+      </c>
+      <c r="L11">
+        <v>2.355875827995731</v>
+      </c>
+      <c r="M11">
+        <v>2.345831693301648</v>
+      </c>
+      <c r="N11">
+        <v>2.333262758201272</v>
+      </c>
+      <c r="O11">
+        <v>2.317186372047094</v>
+      </c>
+      <c r="P11">
+        <v>2.296119191108826</v>
+      </c>
+      <c r="Q11">
+        <v>2.267895495656814</v>
+      </c>
+      <c r="R11">
+        <v>2.230303310030751</v>
+      </c>
+      <c r="S11">
+        <v>2.184837099919452</v>
+      </c>
+      <c r="T11">
+        <v>2.132970886895828</v>
+      </c>
+      <c r="U11">
+        <v>2.069119599402959</v>
+      </c>
+      <c r="V11">
+        <v>1.984542898101613</v>
+      </c>
+      <c r="W11">
+        <v>1.848857930859571</v>
+      </c>
+      <c r="X11">
+        <v>1.646539537998136</v>
+      </c>
+      <c r="Y11">
+        <v>1.478036832816789</v>
+      </c>
+      <c r="Z11">
+        <v>1.369840795286259</v>
+      </c>
+      <c r="AA11">
+        <v>1.300243149048837</v>
+      </c>
+      <c r="AB11">
+        <v>1.253689630868051</v>
+      </c>
+      <c r="AC11">
+        <v>1.221005161400931</v>
+      </c>
+      <c r="AD11">
+        <v>1.197011739677154</v>
+      </c>
+      <c r="AE11">
+        <v>1.178734219928649</v>
+      </c>
+      <c r="AF11">
+        <v>1.164385899045434</v>
+      </c>
+      <c r="AG11">
+        <v>1.152841893568085</v>
+      </c>
+      <c r="AH11">
+        <v>1.143363264454261</v>
+      </c>
+      <c r="AI11">
+        <v>1.135446579848071</v>
+      </c>
+      <c r="AJ11">
+        <v>1.128738023551318</v>
+      </c>
+      <c r="AK11">
+        <v>1.122982198931376</v>
+      </c>
+      <c r="AL11">
+        <v>1.117990431372315</v>
+      </c>
+      <c r="AM11">
+        <v>1.1136204826109</v>
+      </c>
+      <c r="AN11">
+        <v>1.109763187397223</v>
+      </c>
+      <c r="AO11">
+        <v>1.106333423011933</v>
+      </c>
+      <c r="AP11">
+        <v>1.103263866916123</v>
+      </c>
+      <c r="AQ11">
+        <v>1.296594718193256</v>
+      </c>
+      <c r="AR11">
+        <v>20.96201347140634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>2.351122439856361</v>
+      </c>
+      <c r="C12">
+        <v>2.34938993888359</v>
+      </c>
+      <c r="D12">
+        <v>2.347449511665436</v>
+      </c>
+      <c r="E12">
+        <v>2.345263717929879</v>
+      </c>
+      <c r="F12">
+        <v>2.342786027710355</v>
+      </c>
+      <c r="G12">
+        <v>2.339957977917744</v>
+      </c>
+      <c r="H12">
+        <v>2.336705189868133</v>
+      </c>
+      <c r="I12">
+        <v>2.332931669891825</v>
+      </c>
+      <c r="J12">
+        <v>2.328511458181854</v>
+      </c>
+      <c r="K12">
+        <v>2.323276076028279</v>
+      </c>
+      <c r="L12">
+        <v>2.316995133266571</v>
+      </c>
+      <c r="M12">
+        <v>2.309345473027457</v>
+      </c>
+      <c r="N12">
+        <v>2.299860496154009</v>
+      </c>
+      <c r="O12">
+        <v>2.287844176984249</v>
+      </c>
+      <c r="P12">
+        <v>2.272221903336795</v>
+      </c>
+      <c r="Q12">
+        <v>2.251293551686242</v>
+      </c>
+      <c r="R12">
+        <v>2.22248032217828</v>
+      </c>
+      <c r="S12">
+        <v>2.182990021906717</v>
+      </c>
+      <c r="T12">
+        <v>2.131945596588261</v>
+      </c>
+      <c r="U12">
+        <v>2.066598619956576</v>
+      </c>
+      <c r="V12">
+        <v>1.981747185203165</v>
+      </c>
+      <c r="W12">
+        <v>1.871009620509023</v>
+      </c>
+      <c r="X12">
+        <v>1.737051884864794</v>
+      </c>
+      <c r="Y12">
+        <v>1.621642269936374</v>
+      </c>
+      <c r="Z12">
+        <v>1.543038437742241</v>
+      </c>
+      <c r="AA12">
+        <v>1.488398735242085</v>
+      </c>
+      <c r="AB12">
+        <v>1.448061671187989</v>
+      </c>
+      <c r="AC12">
+        <v>1.417262192906258</v>
+      </c>
+      <c r="AD12">
+        <v>1.393213402605924</v>
+      </c>
+      <c r="AE12">
+        <v>1.374065276664954</v>
+      </c>
+      <c r="AF12">
+        <v>1.358545979607227</v>
+      </c>
+      <c r="AG12">
+        <v>1.345765257904727</v>
+      </c>
+      <c r="AH12">
+        <v>1.335087983996185</v>
+      </c>
+      <c r="AI12">
+        <v>1.326052500679</v>
+      </c>
+      <c r="AJ12">
+        <v>1.318317497429788</v>
+      </c>
+      <c r="AK12">
+        <v>1.311626736384761</v>
+      </c>
+      <c r="AL12">
+        <v>1.305785108614194</v>
+      </c>
+      <c r="AM12">
+        <v>1.300642070586665</v>
+      </c>
+      <c r="AN12">
+        <v>1.296080003942005</v>
+      </c>
+      <c r="AO12">
+        <v>1.292005922481554</v>
+      </c>
+      <c r="AP12">
+        <v>1.288345489601079</v>
+      </c>
+      <c r="AQ12">
+        <v>1.062776950255282</v>
+      </c>
+      <c r="AR12">
+        <v>24.4785643024205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>2.368273384008956</v>
+      </c>
+      <c r="C13">
+        <v>2.36630097817258</v>
+      </c>
+      <c r="D13">
+        <v>2.364097181561609</v>
+      </c>
+      <c r="E13">
+        <v>2.361619918127841</v>
+      </c>
+      <c r="F13">
+        <v>2.358816464934661</v>
+      </c>
+      <c r="G13">
+        <v>2.355619954375741</v>
+      </c>
+      <c r="H13">
+        <v>2.351944460057296</v>
+      </c>
+      <c r="I13">
+        <v>2.347677993521878</v>
+      </c>
+      <c r="J13">
+        <v>2.342672378707487</v>
+      </c>
+      <c r="K13">
+        <v>2.336728389479037</v>
+      </c>
+      <c r="L13">
+        <v>2.329573549828136</v>
+      </c>
+      <c r="M13">
+        <v>2.320828194797758</v>
+      </c>
+      <c r="N13">
+        <v>2.309951864450466</v>
+      </c>
+      <c r="O13">
+        <v>2.296155563131073</v>
+      </c>
+      <c r="P13">
+        <v>2.278259592876414</v>
+      </c>
+      <c r="Q13">
+        <v>2.254519582350306</v>
+      </c>
+      <c r="R13">
+        <v>2.22279801405438</v>
+      </c>
+      <c r="S13">
+        <v>2.182167503649202</v>
+      </c>
+      <c r="T13">
+        <v>2.132385871680753</v>
+      </c>
+      <c r="U13">
+        <v>2.068338127412254</v>
+      </c>
+      <c r="V13">
+        <v>1.980516164991694</v>
+      </c>
+      <c r="W13">
+        <v>1.843167269188933</v>
+      </c>
+      <c r="X13">
+        <v>1.65021733080081</v>
+      </c>
+      <c r="Y13">
+        <v>1.496034597578686</v>
+      </c>
+      <c r="Z13">
+        <v>1.400079257456444</v>
+      </c>
+      <c r="AA13">
+        <v>1.337793010558125</v>
+      </c>
+      <c r="AB13">
+        <v>1.294953278764277</v>
+      </c>
+      <c r="AC13">
+        <v>1.264046816843305</v>
+      </c>
+      <c r="AD13">
+        <v>1.240844474130217</v>
+      </c>
+      <c r="AE13">
+        <v>1.222853279084066</v>
+      </c>
+      <c r="AF13">
+        <v>1.208532618358107</v>
+      </c>
+      <c r="AG13">
+        <v>1.196885985382301</v>
+      </c>
+      <c r="AH13">
+        <v>1.187242497986241</v>
+      </c>
+      <c r="AI13">
+        <v>1.179135033886281</v>
+      </c>
+      <c r="AJ13">
+        <v>1.172229050260113</v>
+      </c>
+      <c r="AK13">
+        <v>1.166279163085714</v>
+      </c>
+      <c r="AL13">
+        <v>1.161101639837479</v>
+      </c>
+      <c r="AM13">
+        <v>1.15655640617554</v>
+      </c>
+      <c r="AN13">
+        <v>1.152534951615357</v>
+      </c>
+      <c r="AO13">
+        <v>1.148952007618412</v>
+      </c>
+      <c r="AP13">
+        <v>1.145739702634194</v>
+      </c>
+      <c r="AQ13">
+        <v>1.222533681374762</v>
+      </c>
+      <c r="AR13">
+        <v>21.76905435004969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>2.42485864875229</v>
+      </c>
+      <c r="C14">
+        <v>2.422414756441838</v>
+      </c>
+      <c r="D14">
+        <v>2.419693387163811</v>
+      </c>
+      <c r="E14">
+        <v>2.416645274251592</v>
+      </c>
+      <c r="F14">
+        <v>2.413208690012688</v>
+      </c>
+      <c r="G14">
+        <v>2.409305220716161</v>
+      </c>
+      <c r="H14">
+        <v>2.404833719105149</v>
+      </c>
+      <c r="I14">
+        <v>2.399661480222985</v>
+      </c>
+      <c r="J14">
+        <v>2.393611103920199</v>
+      </c>
+      <c r="K14">
+        <v>2.386440522180079</v>
+      </c>
+      <c r="L14">
+        <v>2.377811967903734</v>
+      </c>
+      <c r="M14">
+        <v>2.367242654870862</v>
+      </c>
+      <c r="N14">
+        <v>2.354024528724467</v>
+      </c>
+      <c r="O14">
+        <v>2.337090993177802</v>
+      </c>
+      <c r="P14">
+        <v>2.314796949214766</v>
+      </c>
+      <c r="Q14">
+        <v>2.284620717791668</v>
+      </c>
+      <c r="R14">
+        <v>2.24350516836123</v>
+      </c>
+      <c r="S14">
+        <v>2.192805363548825</v>
+      </c>
+      <c r="T14">
+        <v>2.136922958459437</v>
+      </c>
+      <c r="U14">
+        <v>2.07093260007058</v>
+      </c>
+      <c r="V14">
+        <v>1.988453549795139</v>
+      </c>
+      <c r="W14">
+        <v>1.865941129745383</v>
+      </c>
+      <c r="X14">
+        <v>1.681797299358317</v>
+      </c>
+      <c r="Y14">
+        <v>1.520621775262965</v>
+      </c>
+      <c r="Z14">
+        <v>1.41842508633154</v>
+      </c>
+      <c r="AA14">
+        <v>1.352532789583278</v>
+      </c>
+      <c r="AB14">
+        <v>1.307671404741187</v>
+      </c>
+      <c r="AC14">
+        <v>1.275606380444696</v>
+      </c>
+      <c r="AD14">
+        <v>1.251714887501684</v>
+      </c>
+      <c r="AE14">
+        <v>1.233293911601359</v>
+      </c>
+      <c r="AF14">
+        <v>1.218690210173282</v>
+      </c>
+      <c r="AG14">
+        <v>1.206846229462674</v>
+      </c>
+      <c r="AH14">
+        <v>1.197057407301864</v>
+      </c>
+      <c r="AI14">
+        <v>1.18883756231394</v>
+      </c>
+      <c r="AJ14">
+        <v>1.181841018299807</v>
+      </c>
+      <c r="AK14">
+        <v>1.175815650082696</v>
+      </c>
+      <c r="AL14">
+        <v>1.170573487194921</v>
+      </c>
+      <c r="AM14">
+        <v>1.165971690227152</v>
+      </c>
+      <c r="AN14">
+        <v>1.161899879940948</v>
+      </c>
+      <c r="AO14">
+        <v>1.158271483154833</v>
+      </c>
+      <c r="AP14">
+        <v>1.155017690330525</v>
+      </c>
+      <c r="AQ14">
+        <v>1.269840958421765</v>
+      </c>
+      <c r="AR14">
+        <v>21.94533611627997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>2.38967124366582</v>
+      </c>
+      <c r="C15">
+        <v>2.38756425437881</v>
+      </c>
+      <c r="D15">
+        <v>2.385206129692181</v>
+      </c>
+      <c r="E15">
+        <v>2.382552755843424</v>
+      </c>
+      <c r="F15">
+        <v>2.379549621294203</v>
+      </c>
+      <c r="G15">
+        <v>2.376128683841226</v>
+      </c>
+      <c r="H15">
+        <v>2.372204056845997</v>
+      </c>
+      <c r="I15">
+        <v>2.367665951521717</v>
+      </c>
+      <c r="J15">
+        <v>2.362371951931437</v>
+      </c>
+      <c r="K15">
+        <v>2.356134016245025</v>
+      </c>
+      <c r="L15">
+        <v>2.348698236312181</v>
+      </c>
+      <c r="M15">
+        <v>2.339711638859705</v>
+      </c>
+      <c r="N15">
+        <v>2.328664971091241</v>
+      </c>
+      <c r="O15">
+        <v>2.314790973348428</v>
+      </c>
+      <c r="P15">
+        <v>2.296884055021922</v>
+      </c>
+      <c r="Q15">
+        <v>2.27300645525751</v>
+      </c>
+      <c r="R15">
+        <v>2.240225264060886</v>
+      </c>
+      <c r="S15">
+        <v>2.195724982062558</v>
+      </c>
+      <c r="T15">
+        <v>2.139929436402603</v>
+      </c>
+      <c r="U15">
+        <v>2.07116248445943</v>
+      </c>
+      <c r="V15">
+        <v>1.986172870183406</v>
+      </c>
+      <c r="W15">
+        <v>1.881586553548037</v>
+      </c>
+      <c r="X15">
+        <v>1.760604356373418</v>
+      </c>
+      <c r="Y15">
+        <v>1.653865699579719</v>
+      </c>
+      <c r="Z15">
+        <v>1.577545463744045</v>
+      </c>
+      <c r="AA15">
+        <v>1.522947691519344</v>
+      </c>
+      <c r="AB15">
+        <v>1.482102474187508</v>
+      </c>
+      <c r="AC15">
+        <v>1.450861988933742</v>
+      </c>
+      <c r="AD15">
+        <v>1.426590696973675</v>
+      </c>
+      <c r="AE15">
+        <v>1.407393577511383</v>
+      </c>
+      <c r="AF15">
+        <v>1.391921986212167</v>
+      </c>
+      <c r="AG15">
+        <v>1.379230232829283</v>
+      </c>
+      <c r="AH15">
+        <v>1.368652571886504</v>
+      </c>
+      <c r="AI15">
+        <v>1.359713315784189</v>
+      </c>
+      <c r="AJ15">
+        <v>1.352066163148085</v>
+      </c>
+      <c r="AK15">
+        <v>1.34545416311926</v>
+      </c>
+      <c r="AL15">
+        <v>1.339683204274108</v>
+      </c>
+      <c r="AM15">
+        <v>1.334604208959691</v>
+      </c>
+      <c r="AN15">
+        <v>1.330100959354504</v>
+      </c>
+      <c r="AO15">
+        <v>1.326081618980683</v>
+      </c>
+      <c r="AP15">
+        <v>1.322472721728137</v>
+      </c>
+      <c r="AQ15">
+        <v>1.067198521937683</v>
+      </c>
+      <c r="AR15">
+        <v>25.12698171283461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>2.378112215905127</v>
+      </c>
+      <c r="C16">
+        <v>2.376090902621529</v>
+      </c>
+      <c r="D16">
+        <v>2.37382094196707</v>
+      </c>
+      <c r="E16">
+        <v>2.371256296611327</v>
+      </c>
+      <c r="F16">
+        <v>2.368339369762831</v>
+      </c>
+      <c r="G16">
+        <v>2.364997268298061</v>
+      </c>
+      <c r="H16">
+        <v>2.361136570417213</v>
+      </c>
+      <c r="I16">
+        <v>2.356635882016123</v>
+      </c>
+      <c r="J16">
+        <v>2.351335074717479</v>
+      </c>
+      <c r="K16">
+        <v>2.345019488671097</v>
+      </c>
+      <c r="L16">
+        <v>2.337396482817901</v>
+      </c>
+      <c r="M16">
+        <v>2.328060609417407</v>
+      </c>
+      <c r="N16">
+        <v>2.316443284256131</v>
+      </c>
+      <c r="O16">
+        <v>2.301747239219502</v>
+      </c>
+      <c r="P16">
+        <v>2.282888437771704</v>
+      </c>
+      <c r="Q16">
+        <v>2.258521207028984</v>
+      </c>
+      <c r="R16">
+        <v>2.227153291804685</v>
+      </c>
+      <c r="S16">
+        <v>2.186825153279516</v>
+      </c>
+      <c r="T16">
+        <v>2.13493931224358</v>
+      </c>
+      <c r="U16">
+        <v>2.070409481848406</v>
+      </c>
+      <c r="V16">
+        <v>1.988587516307426</v>
+      </c>
+      <c r="W16">
+        <v>1.86316157386786</v>
+      </c>
+      <c r="X16">
+        <v>1.663139488623556</v>
+      </c>
+      <c r="Y16">
+        <v>1.486800920837585</v>
+      </c>
+      <c r="Z16">
+        <v>1.379367804454706</v>
+      </c>
+      <c r="AA16">
+        <v>1.3126968335503</v>
+      </c>
+      <c r="AB16">
+        <v>1.268467702301489</v>
+      </c>
+      <c r="AC16">
+        <v>1.2373388315194</v>
+      </c>
+      <c r="AD16">
+        <v>1.214342956386092</v>
+      </c>
+      <c r="AE16">
+        <v>1.1966916530966</v>
+      </c>
+      <c r="AF16">
+        <v>1.182727758642852</v>
+      </c>
+      <c r="AG16">
+        <v>1.17141214585475</v>
+      </c>
+      <c r="AH16">
+        <v>1.162061895420579</v>
+      </c>
+      <c r="AI16">
+        <v>1.15420996893282</v>
+      </c>
+      <c r="AJ16">
+        <v>1.147526125238393</v>
+      </c>
+      <c r="AK16">
+        <v>1.141770211278063</v>
+      </c>
+      <c r="AL16">
+        <v>1.136763391388331</v>
+      </c>
+      <c r="AM16">
+        <v>1.132369760668745</v>
+      </c>
+      <c r="AN16">
+        <v>1.128484211310261</v>
+      </c>
+      <c r="AO16">
+        <v>1.125024198619806</v>
+      </c>
+      <c r="AP16">
+        <v>1.121924015572988</v>
+      </c>
+      <c r="AQ16">
+        <v>1.256188200332139</v>
+      </c>
+      <c r="AR16">
+        <v>21.31655629588678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>2.377959768568378</v>
+      </c>
+      <c r="C17">
+        <v>2.375730761183038</v>
+      </c>
+      <c r="D17">
+        <v>2.373245651546918</v>
+      </c>
+      <c r="E17">
+        <v>2.370459387823971</v>
+      </c>
+      <c r="F17">
+        <v>2.367315728882746</v>
+      </c>
+      <c r="G17">
+        <v>2.363743482748247</v>
+      </c>
+      <c r="H17">
+        <v>2.359651115342931</v>
+      </c>
+      <c r="I17">
+        <v>2.354918864970436</v>
+      </c>
+      <c r="J17">
+        <v>2.349386959491542</v>
+      </c>
+      <c r="K17">
+        <v>2.342837610852524</v>
+      </c>
+      <c r="L17">
+        <v>2.334966843797336</v>
+      </c>
+      <c r="M17">
+        <v>2.325339303460757</v>
+      </c>
+      <c r="N17">
+        <v>2.313313862994517</v>
+      </c>
+      <c r="O17">
+        <v>2.297918685798533</v>
+      </c>
+      <c r="P17">
+        <v>2.277646604831771</v>
+      </c>
+      <c r="Q17">
+        <v>2.250225447521816</v>
+      </c>
+      <c r="R17">
+        <v>2.213428489865096</v>
+      </c>
+      <c r="S17">
+        <v>2.170135502074099</v>
+      </c>
+      <c r="T17">
+        <v>2.121992287092699</v>
+      </c>
+      <c r="U17">
+        <v>2.06287091764212</v>
+      </c>
+      <c r="V17">
+        <v>1.986860250768496</v>
+      </c>
+      <c r="W17">
+        <v>1.874271636386709</v>
+      </c>
+      <c r="X17">
+        <v>1.703097400879885</v>
+      </c>
+      <c r="Y17">
+        <v>1.539834340279569</v>
+      </c>
+      <c r="Z17">
+        <v>1.432953073459011</v>
+      </c>
+      <c r="AA17">
+        <v>1.36540104064718</v>
+      </c>
+      <c r="AB17">
+        <v>1.320614129847875</v>
+      </c>
+      <c r="AC17">
+        <v>1.289194558436989</v>
+      </c>
+      <c r="AD17">
+        <v>1.26599910055971</v>
+      </c>
+      <c r="AE17">
+        <v>1.248147761539673</v>
+      </c>
+      <c r="AF17">
+        <v>1.233952528564044</v>
+      </c>
+      <c r="AG17">
+        <v>1.222372034043046</v>
+      </c>
+      <c r="AH17">
+        <v>1.212731617675002</v>
+      </c>
+      <c r="AI17">
+        <v>1.204574613273955</v>
+      </c>
+      <c r="AJ17">
+        <v>1.197579953411349</v>
+      </c>
+      <c r="AK17">
+        <v>1.191514513868073</v>
+      </c>
+      <c r="AL17">
+        <v>1.186204383153272</v>
+      </c>
+      <c r="AM17">
+        <v>1.181516851807393</v>
+      </c>
+      <c r="AN17">
+        <v>1.177348707739721</v>
+      </c>
+      <c r="AO17">
+        <v>1.173618377798209</v>
+      </c>
+      <c r="AP17">
+        <v>1.170260496646752</v>
+      </c>
+      <c r="AQ17">
+        <v>1.207699271921626</v>
+      </c>
+      <c r="AR17">
+        <v>22.23494943628829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>2.35711175516562</v>
+      </c>
+      <c r="C18">
+        <v>2.354904755571361</v>
+      </c>
+      <c r="D18">
+        <v>2.352446680741814</v>
+      </c>
+      <c r="E18">
+        <v>2.349694525723535</v>
+      </c>
+      <c r="F18">
+        <v>2.346595060350761</v>
+      </c>
+      <c r="G18">
+        <v>2.343081596073441</v>
+      </c>
+      <c r="H18">
+        <v>2.339069440182502</v>
+      </c>
+      <c r="I18">
+        <v>2.33444937370566</v>
+      </c>
+      <c r="J18">
+        <v>2.329078084470708</v>
+      </c>
+      <c r="K18">
+        <v>2.322763798605714</v>
+      </c>
+      <c r="L18">
+        <v>2.315244178622426</v>
+      </c>
+      <c r="M18">
+        <v>2.306151603653932</v>
+      </c>
+      <c r="N18">
+        <v>2.294958070979181</v>
+      </c>
+      <c r="O18">
+        <v>2.280889689691959</v>
+      </c>
+      <c r="P18">
+        <v>2.262810516054659</v>
+      </c>
+      <c r="Q18">
+        <v>2.239158302978074</v>
+      </c>
+      <c r="R18">
+        <v>2.208359007961486</v>
+      </c>
+      <c r="S18">
+        <v>2.169954772389805</v>
+      </c>
+      <c r="T18">
+        <v>2.122674206805219</v>
+      </c>
+      <c r="U18">
+        <v>2.062642419171985</v>
+      </c>
+      <c r="V18">
+        <v>1.985688505218662</v>
+      </c>
+      <c r="W18">
+        <v>1.881852284085581</v>
+      </c>
+      <c r="X18">
+        <v>1.749565849638372</v>
+      </c>
+      <c r="Y18">
+        <v>1.628947904265682</v>
+      </c>
+      <c r="Z18">
+        <v>1.542029987422764</v>
+      </c>
+      <c r="AA18">
+        <v>1.480104021741347</v>
+      </c>
+      <c r="AB18">
+        <v>1.435063952005105</v>
+      </c>
+      <c r="AC18">
+        <v>1.401710109880318</v>
+      </c>
+      <c r="AD18">
+        <v>1.376429323938933</v>
+      </c>
+      <c r="AE18">
+        <v>1.356783680283725</v>
+      </c>
+      <c r="AF18">
+        <v>1.341156303917212</v>
+      </c>
+      <c r="AG18">
+        <v>1.328465001841665</v>
+      </c>
+      <c r="AH18">
+        <v>1.317970646677637</v>
+      </c>
+      <c r="AI18">
+        <v>1.30915660039102</v>
+      </c>
+      <c r="AJ18">
+        <v>1.301653345519851</v>
+      </c>
+      <c r="AK18">
+        <v>1.295190792232819</v>
+      </c>
+      <c r="AL18">
+        <v>1.289567531450545</v>
+      </c>
+      <c r="AM18">
+        <v>1.284630601567911</v>
+      </c>
+      <c r="AN18">
+        <v>1.28026189509881</v>
+      </c>
+      <c r="AO18">
+        <v>1.276368840887285</v>
+      </c>
+      <c r="AP18">
+        <v>1.272877894031845</v>
+      </c>
+      <c r="AQ18">
+        <v>1.084233861133775</v>
+      </c>
+      <c r="AR18">
+        <v>24.18467998660505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>2.343610438993583</v>
+      </c>
+      <c r="C19">
+        <v>2.341544683189336</v>
+      </c>
+      <c r="D19">
+        <v>2.339236262940691</v>
+      </c>
+      <c r="E19">
+        <v>2.336642920521864</v>
+      </c>
+      <c r="F19">
+        <v>2.333712401022858</v>
+      </c>
+      <c r="G19">
+        <v>2.330379320502713</v>
+      </c>
+      <c r="H19">
+        <v>2.326560774359222</v>
+      </c>
+      <c r="I19">
+        <v>2.322150064265092</v>
+      </c>
+      <c r="J19">
+        <v>2.317007568560682</v>
+      </c>
+      <c r="K19">
+        <v>2.310947224243804</v>
+      </c>
+      <c r="L19">
+        <v>2.303716265435942</v>
+      </c>
+      <c r="M19">
+        <v>2.294964871331489</v>
+      </c>
+      <c r="N19">
+        <v>2.284202097000957</v>
+      </c>
+      <c r="O19">
+        <v>2.270738709892855</v>
+      </c>
+      <c r="P19">
+        <v>2.253638425830218</v>
+      </c>
+      <c r="Q19">
+        <v>2.231750053885184</v>
+      </c>
+      <c r="R19">
+        <v>2.203834188493498</v>
+      </c>
+      <c r="S19">
+        <v>2.168197416628074</v>
+      </c>
+      <c r="T19">
+        <v>2.121949602273937</v>
+      </c>
+      <c r="U19">
+        <v>2.062641166057083</v>
+      </c>
+      <c r="V19">
+        <v>1.986379300920076</v>
+      </c>
+      <c r="W19">
+        <v>1.878132393692189</v>
+      </c>
+      <c r="X19">
+        <v>1.723514665730226</v>
+      </c>
+      <c r="Y19">
+        <v>1.569278189305891</v>
+      </c>
+      <c r="Z19">
+        <v>1.45878380068278</v>
+      </c>
+      <c r="AA19">
+        <v>1.385649975866256</v>
+      </c>
+      <c r="AB19">
+        <v>1.336227420152098</v>
+      </c>
+      <c r="AC19">
+        <v>1.301291850298413</v>
+      </c>
+      <c r="AD19">
+        <v>1.275497173341688</v>
+      </c>
+      <c r="AE19">
+        <v>1.255745938231437</v>
+      </c>
+      <c r="AF19">
+        <v>1.24016718801859</v>
+      </c>
+      <c r="AG19">
+        <v>1.227577289631702</v>
+      </c>
+      <c r="AH19">
+        <v>1.21719572416033</v>
+      </c>
+      <c r="AI19">
+        <v>1.208489140064917</v>
+      </c>
+      <c r="AJ19">
+        <v>1.201081793402195</v>
+      </c>
+      <c r="AK19">
+        <v>1.194701907755443</v>
+      </c>
+      <c r="AL19">
+        <v>1.189148340530607</v>
+      </c>
+      <c r="AM19">
+        <v>1.184269190645333</v>
+      </c>
+      <c r="AN19">
+        <v>1.179947676300176</v>
+      </c>
+      <c r="AO19">
+        <v>1.176092576049238</v>
+      </c>
+      <c r="AP19">
+        <v>1.17263161269056</v>
+      </c>
+      <c r="AQ19">
+        <v>1.170978826303022</v>
+      </c>
+      <c r="AR19">
+        <v>22.28000064112064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>